--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2427,28 +2427,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>521.5802553161456</v>
+        <v>648.7968664118932</v>
       </c>
       <c r="AB2" t="n">
-        <v>713.6491158204165</v>
+        <v>887.7124955223965</v>
       </c>
       <c r="AC2" t="n">
-        <v>645.5394458193399</v>
+        <v>802.9904608620508</v>
       </c>
       <c r="AD2" t="n">
-        <v>521580.2553161456</v>
+        <v>648796.8664118933</v>
       </c>
       <c r="AE2" t="n">
-        <v>713649.1158204165</v>
+        <v>887712.4955223965</v>
       </c>
       <c r="AF2" t="n">
         <v>6.329023639554178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.79817708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>645539.4458193399</v>
+        <v>802990.4608620508</v>
       </c>
     </row>
     <row r="3">
@@ -2533,28 +2533,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>294.7860630662192</v>
+        <v>373.0269134213016</v>
       </c>
       <c r="AB3" t="n">
-        <v>403.3392965304548</v>
+        <v>510.3918797289843</v>
       </c>
       <c r="AC3" t="n">
-        <v>364.8451601598455</v>
+        <v>461.6807950671516</v>
       </c>
       <c r="AD3" t="n">
-        <v>294786.0630662192</v>
+        <v>373026.9134213016</v>
       </c>
       <c r="AE3" t="n">
-        <v>403339.2965304548</v>
+        <v>510391.8797289843</v>
       </c>
       <c r="AF3" t="n">
         <v>9.747752327038191e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.10026041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>364845.1601598455</v>
+        <v>461680.7950671515</v>
       </c>
     </row>
     <row r="4">
@@ -2639,28 +2639,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>248.0561217139147</v>
+        <v>316.5084507986518</v>
       </c>
       <c r="AB4" t="n">
-        <v>339.4013291925582</v>
+        <v>433.0608257500807</v>
       </c>
       <c r="AC4" t="n">
-        <v>307.0093426872789</v>
+        <v>391.7301083451785</v>
       </c>
       <c r="AD4" t="n">
-        <v>248056.1217139147</v>
+        <v>316508.4507986518</v>
       </c>
       <c r="AE4" t="n">
-        <v>339401.3291925582</v>
+        <v>433060.8257500806</v>
       </c>
       <c r="AF4" t="n">
         <v>1.104041315647824e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.21875</v>
       </c>
       <c r="AH4" t="n">
-        <v>307009.3426872789</v>
+        <v>391730.1083451785</v>
       </c>
     </row>
     <row r="5">
@@ -2745,28 +2745,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>223.904434687067</v>
+        <v>292.322598353023</v>
       </c>
       <c r="AB5" t="n">
-        <v>306.3559255052091</v>
+        <v>399.9686754294668</v>
       </c>
       <c r="AC5" t="n">
-        <v>277.1177459483245</v>
+        <v>361.7962264060392</v>
       </c>
       <c r="AD5" t="n">
-        <v>223904.4346870669</v>
+        <v>292322.5983530229</v>
       </c>
       <c r="AE5" t="n">
-        <v>306355.9255052091</v>
+        <v>399968.6754294668</v>
       </c>
       <c r="AF5" t="n">
         <v>1.18036664548757e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.29427083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>277117.7459483244</v>
+        <v>361796.2264060393</v>
       </c>
     </row>
     <row r="6">
@@ -2851,28 +2851,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>206.9756570463814</v>
+        <v>275.4611405200416</v>
       </c>
       <c r="AB6" t="n">
-        <v>283.1932250922749</v>
+        <v>376.8980849473622</v>
       </c>
       <c r="AC6" t="n">
-        <v>256.1656611537392</v>
+        <v>340.9274606997697</v>
       </c>
       <c r="AD6" t="n">
-        <v>206975.6570463814</v>
+        <v>275461.1405200416</v>
       </c>
       <c r="AE6" t="n">
-        <v>283193.2250922749</v>
+        <v>376898.0849473622</v>
       </c>
       <c r="AF6" t="n">
         <v>1.211827338930674e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.94921875</v>
       </c>
       <c r="AH6" t="n">
-        <v>256165.6611537391</v>
+        <v>340927.4606997697</v>
       </c>
     </row>
     <row r="7">
@@ -2957,28 +2957,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>206.0139782930106</v>
+        <v>274.4994617666708</v>
       </c>
       <c r="AB7" t="n">
-        <v>281.8774137956414</v>
+        <v>375.5822736507279</v>
       </c>
       <c r="AC7" t="n">
-        <v>254.9754290405031</v>
+        <v>339.7372285865334</v>
       </c>
       <c r="AD7" t="n">
-        <v>206013.9782930106</v>
+        <v>274499.4617666707</v>
       </c>
       <c r="AE7" t="n">
-        <v>281877.4137956413</v>
+        <v>375582.2736507279</v>
       </c>
       <c r="AF7" t="n">
         <v>1.216383715222434e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.90364583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>254975.4290405031</v>
+        <v>339737.2285865334</v>
       </c>
     </row>
   </sheetData>
@@ -3254,28 +3254,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>391.0320537422144</v>
+        <v>497.483928974623</v>
       </c>
       <c r="AB2" t="n">
-        <v>535.0273070467871</v>
+        <v>680.6794590650536</v>
       </c>
       <c r="AC2" t="n">
-        <v>483.9650517777827</v>
+        <v>615.7163668315051</v>
       </c>
       <c r="AD2" t="n">
-        <v>391032.0537422145</v>
+        <v>497483.928974623</v>
       </c>
       <c r="AE2" t="n">
-        <v>535027.3070467871</v>
+        <v>680679.4590650536</v>
       </c>
       <c r="AF2" t="n">
         <v>8.220295659065983e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.89192708333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>483965.0517777827</v>
+        <v>615716.3668315051</v>
       </c>
     </row>
     <row r="3">
@@ -3360,28 +3360,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>245.3277314580249</v>
+        <v>322.737959240112</v>
       </c>
       <c r="AB3" t="n">
-        <v>335.6682252763687</v>
+        <v>441.5843140262028</v>
       </c>
       <c r="AC3" t="n">
-        <v>303.632520969405</v>
+        <v>399.4401268630183</v>
       </c>
       <c r="AD3" t="n">
-        <v>245327.7314580249</v>
+        <v>322737.959240112</v>
       </c>
       <c r="AE3" t="n">
-        <v>335668.2252763687</v>
+        <v>441584.3140262028</v>
       </c>
       <c r="AF3" t="n">
         <v>1.155373198559478e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.86328125</v>
       </c>
       <c r="AH3" t="n">
-        <v>303632.5209694051</v>
+        <v>399440.1268630184</v>
       </c>
     </row>
     <row r="4">
@@ -3466,28 +3466,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.3435660221276</v>
+        <v>282.0059248464018</v>
       </c>
       <c r="AB4" t="n">
-        <v>293.274323202089</v>
+        <v>385.8529475981948</v>
       </c>
       <c r="AC4" t="n">
-        <v>265.2846334088658</v>
+        <v>349.0276838274355</v>
       </c>
       <c r="AD4" t="n">
-        <v>214343.5660221276</v>
+        <v>282005.9248464018</v>
       </c>
       <c r="AE4" t="n">
-        <v>293274.3232020889</v>
+        <v>385852.9475981948</v>
       </c>
       <c r="AF4" t="n">
         <v>1.287476143271484e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.33984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>265284.6334088658</v>
+        <v>349027.6838274355</v>
       </c>
     </row>
     <row r="5">
@@ -3572,28 +3572,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>197.6339793086622</v>
+        <v>265.3636579406406</v>
       </c>
       <c r="AB5" t="n">
-        <v>270.4115294857984</v>
+        <v>363.082263812734</v>
       </c>
       <c r="AC5" t="n">
-        <v>244.6038326367183</v>
+        <v>328.4302021436036</v>
       </c>
       <c r="AD5" t="n">
-        <v>197633.9793086622</v>
+        <v>265363.6579406406</v>
       </c>
       <c r="AE5" t="n">
-        <v>270411.5294857984</v>
+        <v>363082.263812734</v>
       </c>
       <c r="AF5" t="n">
         <v>1.325408258785834e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.95572916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>244603.8326367183</v>
+        <v>328430.2021436036</v>
       </c>
     </row>
     <row r="6">
@@ -3678,28 +3678,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>198.0053959574651</v>
+        <v>265.7350745894435</v>
       </c>
       <c r="AB6" t="n">
-        <v>270.9197181304364</v>
+        <v>363.5904524573722</v>
       </c>
       <c r="AC6" t="n">
-        <v>245.0635204703594</v>
+        <v>328.8898899772448</v>
       </c>
       <c r="AD6" t="n">
-        <v>198005.3959574651</v>
+        <v>265735.0745894435</v>
       </c>
       <c r="AE6" t="n">
-        <v>270919.7181304364</v>
+        <v>363590.4524573722</v>
       </c>
       <c r="AF6" t="n">
         <v>1.325091718183489e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.96223958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>245063.5204703594</v>
+        <v>328889.8899772448</v>
       </c>
     </row>
   </sheetData>
@@ -3975,28 +3975,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>205.3892478406364</v>
+        <v>270.81030021102</v>
       </c>
       <c r="AB2" t="n">
-        <v>281.0226300295408</v>
+        <v>370.5346000559654</v>
       </c>
       <c r="AC2" t="n">
-        <v>254.2022246373425</v>
+        <v>335.1712978752007</v>
       </c>
       <c r="AD2" t="n">
-        <v>205389.2478406364</v>
+        <v>270810.30021102</v>
       </c>
       <c r="AE2" t="n">
-        <v>281022.6300295409</v>
+        <v>370534.6000559654</v>
       </c>
       <c r="AF2" t="n">
         <v>1.659520456547793e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.44661458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>254202.2246373425</v>
+        <v>335171.2978752007</v>
       </c>
     </row>
     <row r="3">
@@ -4081,28 +4081,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.6480047775368</v>
+        <v>254.1363769556215</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.1165226991014</v>
+        <v>347.720602656187</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.4822440415893</v>
+        <v>314.5346363677152</v>
       </c>
       <c r="AD3" t="n">
-        <v>188648.0047775368</v>
+        <v>254136.3769556215</v>
       </c>
       <c r="AE3" t="n">
-        <v>258116.5226991014</v>
+        <v>347720.602656187</v>
       </c>
       <c r="AF3" t="n">
         <v>1.746853949391211e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.72395833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>233482.2440415893</v>
+        <v>314534.6363677152</v>
       </c>
     </row>
   </sheetData>
@@ -4378,28 +4378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>260.6342254289995</v>
+        <v>336.4274666491261</v>
       </c>
       <c r="AB2" t="n">
-        <v>356.6112456024699</v>
+        <v>460.3149020016589</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.5767688291961</v>
+        <v>416.3830938106424</v>
       </c>
       <c r="AD2" t="n">
-        <v>260634.2254289995</v>
+        <v>336427.4666491261</v>
       </c>
       <c r="AE2" t="n">
-        <v>356611.2456024699</v>
+        <v>460314.9020016589</v>
       </c>
       <c r="AF2" t="n">
         <v>1.26553945843832e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.39973958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>322576.7688291961</v>
+        <v>416383.0938106424</v>
       </c>
     </row>
     <row r="3">
@@ -4484,28 +4484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.8938457140375</v>
+        <v>261.1703513869069</v>
       </c>
       <c r="AB3" t="n">
-        <v>266.6623578154724</v>
+        <v>357.3447967902868</v>
       </c>
       <c r="AC3" t="n">
-        <v>241.2124766486115</v>
+        <v>323.2403109211932</v>
       </c>
       <c r="AD3" t="n">
-        <v>194893.8457140375</v>
+        <v>261170.3513869069</v>
       </c>
       <c r="AE3" t="n">
-        <v>266662.3578154724</v>
+        <v>357344.7967902867</v>
       </c>
       <c r="AF3" t="n">
         <v>1.564586964943396e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.26822916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>241212.4766486115</v>
+        <v>323240.3109211932</v>
       </c>
     </row>
     <row r="4">
@@ -4590,28 +4590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>194.840116972799</v>
+        <v>261.1166226456684</v>
       </c>
       <c r="AB4" t="n">
-        <v>266.5888437813652</v>
+        <v>357.2712827561795</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.1459786907419</v>
+        <v>323.1738129633235</v>
       </c>
       <c r="AD4" t="n">
-        <v>194840.116972799</v>
+        <v>261116.6226456684</v>
       </c>
       <c r="AE4" t="n">
-        <v>266588.8437813652</v>
+        <v>357271.2827561795</v>
       </c>
       <c r="AF4" t="n">
         <v>1.56905083645536e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.22916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>241145.9786907418</v>
+        <v>323173.8129633236</v>
       </c>
     </row>
   </sheetData>
@@ -4887,28 +4887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.3503347746495</v>
+        <v>258.0417173051844</v>
       </c>
       <c r="AB2" t="n">
-        <v>264.550458053306</v>
+        <v>353.0640616139128</v>
       </c>
       <c r="AC2" t="n">
-        <v>239.3021336356757</v>
+        <v>319.3681231021091</v>
       </c>
       <c r="AD2" t="n">
-        <v>193350.3347746495</v>
+        <v>258041.7173051844</v>
       </c>
       <c r="AE2" t="n">
-        <v>264550.458053306</v>
+        <v>353064.0616139128</v>
       </c>
       <c r="AF2" t="n">
         <v>1.911086106632525e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.36848958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>239302.1336356757</v>
+        <v>319368.1231021091</v>
       </c>
     </row>
   </sheetData>
@@ -5184,28 +5184,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>420.7396678469617</v>
+        <v>537.1784813953212</v>
       </c>
       <c r="AB2" t="n">
-        <v>575.6745752723384</v>
+        <v>734.9912968871122</v>
       </c>
       <c r="AC2" t="n">
-        <v>520.7330017726866</v>
+        <v>664.8447590789694</v>
       </c>
       <c r="AD2" t="n">
-        <v>420739.6678469616</v>
+        <v>537178.4813953212</v>
       </c>
       <c r="AE2" t="n">
-        <v>575674.5752723385</v>
+        <v>734991.2968871122</v>
       </c>
       <c r="AF2" t="n">
         <v>7.692227525385988e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.78385416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>520733.0017726867</v>
+        <v>664844.7590789695</v>
       </c>
     </row>
     <row r="3">
@@ -5290,28 +5290,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>262.0961162450711</v>
+        <v>330.0254627479349</v>
       </c>
       <c r="AB3" t="n">
-        <v>358.6114691110901</v>
+        <v>451.5553978275702</v>
       </c>
       <c r="AC3" t="n">
-        <v>324.3860938134849</v>
+        <v>408.4595844208874</v>
       </c>
       <c r="AD3" t="n">
-        <v>262096.1162450711</v>
+        <v>330025.4627479349</v>
       </c>
       <c r="AE3" t="n">
-        <v>358611.4691110901</v>
+        <v>451555.3978275702</v>
       </c>
       <c r="AF3" t="n">
         <v>1.106097168175337e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.14973958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>324386.0938134849</v>
+        <v>408459.5844208874</v>
       </c>
     </row>
     <row r="4">
@@ -5396,28 +5396,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>220.4298662970859</v>
+        <v>288.392367188876</v>
       </c>
       <c r="AB4" t="n">
-        <v>301.6018677469004</v>
+        <v>394.5911597611191</v>
       </c>
       <c r="AC4" t="n">
-        <v>272.8174087901053</v>
+        <v>356.9319332856881</v>
       </c>
       <c r="AD4" t="n">
-        <v>220429.8662970859</v>
+        <v>288392.367188876</v>
       </c>
       <c r="AE4" t="n">
-        <v>301601.8677469004</v>
+        <v>394591.1597611191</v>
       </c>
       <c r="AF4" t="n">
         <v>1.235420700242195e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.56770833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>272817.4087901053</v>
+        <v>356931.9332856881</v>
       </c>
     </row>
     <row r="5">
@@ -5502,28 +5502,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>200.3586645141591</v>
+        <v>268.2869999871681</v>
       </c>
       <c r="AB5" t="n">
-        <v>274.1395639885852</v>
+        <v>367.0821093695419</v>
       </c>
       <c r="AC5" t="n">
-        <v>247.9760687588895</v>
+        <v>332.0483080542883</v>
       </c>
       <c r="AD5" t="n">
-        <v>200358.6645141591</v>
+        <v>268286.9999871681</v>
       </c>
       <c r="AE5" t="n">
-        <v>274139.5639885851</v>
+        <v>367082.1093695419</v>
       </c>
       <c r="AF5" t="n">
         <v>1.292179933563736e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.96875</v>
       </c>
       <c r="AH5" t="n">
-        <v>247976.0687588895</v>
+        <v>332048.3080542883</v>
       </c>
     </row>
     <row r="6">
@@ -5608,28 +5608,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>199.8143658555566</v>
+        <v>267.7427013285657</v>
       </c>
       <c r="AB6" t="n">
-        <v>273.3948305511235</v>
+        <v>366.3373759320799</v>
       </c>
       <c r="AC6" t="n">
-        <v>247.302411635459</v>
+        <v>331.3746509308577</v>
       </c>
       <c r="AD6" t="n">
-        <v>199814.3658555566</v>
+        <v>267742.7013285657</v>
       </c>
       <c r="AE6" t="n">
-        <v>273394.8305511235</v>
+        <v>366337.3759320799</v>
       </c>
       <c r="AF6" t="n">
         <v>1.297482610236859e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.91666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>247302.411635459</v>
+        <v>331374.6509308578</v>
       </c>
     </row>
   </sheetData>
@@ -5905,28 +5905,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.043997891536</v>
+        <v>265.3374720445144</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.0772673502865</v>
+        <v>363.0464351144138</v>
       </c>
       <c r="AC2" t="n">
-        <v>248.8242790278253</v>
+        <v>328.3977928859653</v>
       </c>
       <c r="AD2" t="n">
-        <v>201043.997891536</v>
+        <v>265337.4720445144</v>
       </c>
       <c r="AE2" t="n">
-        <v>275077.2673502865</v>
+        <v>363046.4351144138</v>
       </c>
       <c r="AF2" t="n">
         <v>2.002025250852497e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.00651041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>248824.2790278253</v>
+        <v>328397.7928859653</v>
       </c>
     </row>
   </sheetData>
@@ -6202,28 +6202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>321.1518348578031</v>
+        <v>416.9006220484675</v>
       </c>
       <c r="AB2" t="n">
-        <v>439.4141086714584</v>
+        <v>570.4218234440916</v>
       </c>
       <c r="AC2" t="n">
-        <v>397.4770428614285</v>
+        <v>515.9815652066442</v>
       </c>
       <c r="AD2" t="n">
-        <v>321151.8348578031</v>
+        <v>416900.6220484675</v>
       </c>
       <c r="AE2" t="n">
-        <v>439414.1086714584</v>
+        <v>570421.8234440916</v>
       </c>
       <c r="AF2" t="n">
         <v>1.009464791543093e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.49609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>397477.0428614285</v>
+        <v>515981.5652066441</v>
       </c>
     </row>
     <row r="3">
@@ -6308,28 +6308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.1517384817571</v>
+        <v>290.7909579129425</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.0118562985204</v>
+        <v>397.8730174081415</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.0472159781992</v>
+        <v>359.9005750449948</v>
       </c>
       <c r="AD3" t="n">
-        <v>214151.7384817571</v>
+        <v>290790.9579129425</v>
       </c>
       <c r="AE3" t="n">
-        <v>293011.8562985204</v>
+        <v>397873.0174081415</v>
       </c>
       <c r="AF3" t="n">
         <v>1.337453366052818e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.96484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>265047.2159781992</v>
+        <v>359900.5750449948</v>
       </c>
     </row>
     <row r="4">
@@ -6414,28 +6414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.6837860958334</v>
+        <v>257.768727162203</v>
       </c>
       <c r="AB4" t="n">
-        <v>260.9019685111265</v>
+        <v>352.6905444568107</v>
       </c>
       <c r="AC4" t="n">
-        <v>236.0018508147134</v>
+        <v>319.0302538982461</v>
       </c>
       <c r="AD4" t="n">
-        <v>190683.7860958334</v>
+        <v>257768.7271622031</v>
       </c>
       <c r="AE4" t="n">
-        <v>260901.9685111265</v>
+        <v>352690.5444568107</v>
       </c>
       <c r="AF4" t="n">
         <v>1.440453538423996e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.96223958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>236001.8508147134</v>
+        <v>319030.2538982461</v>
       </c>
     </row>
     <row r="5">
@@ -6520,28 +6520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>191.0359638206963</v>
+        <v>258.1209048870692</v>
       </c>
       <c r="AB5" t="n">
-        <v>261.3838336112684</v>
+        <v>353.172409557124</v>
       </c>
       <c r="AC5" t="n">
-        <v>236.4377273859998</v>
+        <v>319.4661304695812</v>
       </c>
       <c r="AD5" t="n">
-        <v>191035.9638206963</v>
+        <v>258120.9048870692</v>
       </c>
       <c r="AE5" t="n">
-        <v>261383.8336112684</v>
+        <v>353172.409557124</v>
       </c>
       <c r="AF5" t="n">
         <v>1.440453538423996e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.96223958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>236437.7273859998</v>
+        <v>319466.1304695812</v>
       </c>
     </row>
   </sheetData>
@@ -6817,28 +6817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>373.587474492089</v>
+        <v>470.0310590186841</v>
       </c>
       <c r="AB2" t="n">
-        <v>511.1588641162447</v>
+        <v>643.1172312561932</v>
       </c>
       <c r="AC2" t="n">
-        <v>462.3745795409612</v>
+        <v>581.7390253258045</v>
       </c>
       <c r="AD2" t="n">
-        <v>373587.474492089</v>
+        <v>470031.0590186841</v>
       </c>
       <c r="AE2" t="n">
-        <v>511158.8641162447</v>
+        <v>643117.2312561932</v>
       </c>
       <c r="AF2" t="n">
         <v>8.772009211878663e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.09114583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>462374.5795409612</v>
+        <v>581739.0253258045</v>
       </c>
     </row>
     <row r="3">
@@ -6923,28 +6923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>237.1016480372249</v>
+        <v>304.591961263533</v>
       </c>
       <c r="AB3" t="n">
-        <v>324.4129350308481</v>
+        <v>416.7561590497162</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.4514198280143</v>
+        <v>376.9815361509534</v>
       </c>
       <c r="AD3" t="n">
-        <v>237101.6480372249</v>
+        <v>304591.961263533</v>
       </c>
       <c r="AE3" t="n">
-        <v>324412.9350308481</v>
+        <v>416756.1590497162</v>
       </c>
       <c r="AF3" t="n">
         <v>1.216764314815589e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.48567708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>293451.4198280143</v>
+        <v>376981.5361509534</v>
       </c>
     </row>
     <row r="4">
@@ -7029,28 +7029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>207.5808660407575</v>
+        <v>265.4542542524161</v>
       </c>
       <c r="AB4" t="n">
-        <v>284.0212987383161</v>
+        <v>363.2062216833323</v>
       </c>
       <c r="AC4" t="n">
-        <v>256.9147046132112</v>
+        <v>328.5423296490081</v>
       </c>
       <c r="AD4" t="n">
-        <v>207580.8660407574</v>
+        <v>265454.2542524161</v>
       </c>
       <c r="AE4" t="n">
-        <v>284021.2987383162</v>
+        <v>363206.2216833323</v>
       </c>
       <c r="AF4" t="n">
         <v>1.348290304788757e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.07291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>256914.7046132112</v>
+        <v>328542.3296490081</v>
       </c>
     </row>
     <row r="5">
@@ -7135,28 +7135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>195.4414897422728</v>
+        <v>262.9649573575039</v>
       </c>
       <c r="AB5" t="n">
-        <v>267.4116685352528</v>
+        <v>359.8002558516853</v>
       </c>
       <c r="AC5" t="n">
-        <v>241.8902742049605</v>
+        <v>325.4614244160304</v>
       </c>
       <c r="AD5" t="n">
-        <v>195441.4897422728</v>
+        <v>262964.9573575039</v>
       </c>
       <c r="AE5" t="n">
-        <v>267411.6685352528</v>
+        <v>359800.2558516853</v>
       </c>
       <c r="AF5" t="n">
         <v>1.360473650916367e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.95572916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>241890.2742049605</v>
+        <v>325461.4244160303</v>
       </c>
     </row>
   </sheetData>
@@ -7432,28 +7432,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>485.1739292114181</v>
+        <v>602.3279489326724</v>
       </c>
       <c r="AB2" t="n">
-        <v>663.8363743101756</v>
+        <v>824.1316725633736</v>
       </c>
       <c r="AC2" t="n">
-        <v>600.4807624462148</v>
+        <v>745.4777024099915</v>
       </c>
       <c r="AD2" t="n">
-        <v>485173.929211418</v>
+        <v>602327.9489326724</v>
       </c>
       <c r="AE2" t="n">
-        <v>663836.3743101757</v>
+        <v>824131.6725633736</v>
       </c>
       <c r="AF2" t="n">
         <v>6.758892313574444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.70442708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>600480.7624462148</v>
+        <v>745477.7024099915</v>
       </c>
     </row>
     <row r="3">
@@ -7538,28 +7538,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>277.1465832892074</v>
+        <v>355.249263103377</v>
       </c>
       <c r="AB3" t="n">
-        <v>379.204182100622</v>
+        <v>486.0677142694206</v>
       </c>
       <c r="AC3" t="n">
-        <v>343.0134671773501</v>
+        <v>439.6780938198679</v>
       </c>
       <c r="AD3" t="n">
-        <v>277146.5832892074</v>
+        <v>355249.263103377</v>
       </c>
       <c r="AE3" t="n">
-        <v>379204.182100622</v>
+        <v>486067.7142694206</v>
       </c>
       <c r="AF3" t="n">
         <v>1.015581284783832e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.77473958333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>343013.4671773501</v>
+        <v>439678.0938198679</v>
       </c>
     </row>
     <row r="4">
@@ -7644,28 +7644,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>242.7197622511679</v>
+        <v>310.9922872808648</v>
       </c>
       <c r="AB4" t="n">
-        <v>332.0998867520675</v>
+        <v>425.5133674690853</v>
       </c>
       <c r="AC4" t="n">
-        <v>300.4047396656675</v>
+        <v>384.9029688895972</v>
       </c>
       <c r="AD4" t="n">
-        <v>242719.7622511678</v>
+        <v>310992.2872808648</v>
       </c>
       <c r="AE4" t="n">
-        <v>332099.8867520675</v>
+        <v>425513.3674690853</v>
       </c>
       <c r="AF4" t="n">
         <v>1.141003013827511e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.04296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>300404.7396656675</v>
+        <v>384902.9688895972</v>
       </c>
     </row>
     <row r="5">
@@ -7750,28 +7750,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>222.1144560179607</v>
+        <v>290.3528156288766</v>
       </c>
       <c r="AB5" t="n">
-        <v>303.9067977218535</v>
+        <v>397.273531805609</v>
       </c>
       <c r="AC5" t="n">
-        <v>274.9023594832391</v>
+        <v>359.3583035069847</v>
       </c>
       <c r="AD5" t="n">
-        <v>222114.4560179606</v>
+        <v>290352.8156288766</v>
       </c>
       <c r="AE5" t="n">
-        <v>303906.7977218535</v>
+        <v>397273.531805609</v>
       </c>
       <c r="AF5" t="n">
         <v>1.198766906697511e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.36588541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>274902.3594832391</v>
+        <v>359358.3035069847</v>
       </c>
     </row>
     <row r="6">
@@ -7856,28 +7856,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>203.7078097362096</v>
+        <v>272.0134891548296</v>
       </c>
       <c r="AB6" t="n">
-        <v>278.7220122352516</v>
+        <v>372.1808562498357</v>
       </c>
       <c r="AC6" t="n">
-        <v>252.1211745764021</v>
+        <v>336.660437688463</v>
       </c>
       <c r="AD6" t="n">
-        <v>203707.8097362096</v>
+        <v>272013.4891548296</v>
       </c>
       <c r="AE6" t="n">
-        <v>278722.0122352516</v>
+        <v>372180.8562498357</v>
       </c>
       <c r="AF6" t="n">
         <v>1.241911390805354e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.90364583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>252121.1745764021</v>
+        <v>336660.437688463</v>
       </c>
     </row>
     <row r="7">
@@ -7962,28 +7962,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>204.0782972489518</v>
+        <v>272.3839766675718</v>
       </c>
       <c r="AB7" t="n">
-        <v>279.2289295949406</v>
+        <v>372.6877736095249</v>
       </c>
       <c r="AC7" t="n">
-        <v>252.5797124547455</v>
+        <v>337.1189755668066</v>
       </c>
       <c r="AD7" t="n">
-        <v>204078.2972489518</v>
+        <v>272383.9766675718</v>
       </c>
       <c r="AE7" t="n">
-        <v>279228.9295949406</v>
+        <v>372687.7736095249</v>
       </c>
       <c r="AF7" t="n">
         <v>1.241394543020834e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.91015625</v>
       </c>
       <c r="AH7" t="n">
-        <v>252579.7124547455</v>
+        <v>337118.9755668066</v>
       </c>
     </row>
   </sheetData>
@@ -8259,28 +8259,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>283.0390077126628</v>
+        <v>359.1637892373877</v>
       </c>
       <c r="AB2" t="n">
-        <v>387.2664571522124</v>
+        <v>491.4237416226786</v>
       </c>
       <c r="AC2" t="n">
-        <v>350.3062900134908</v>
+        <v>444.5229494397627</v>
       </c>
       <c r="AD2" t="n">
-        <v>283039.0077126628</v>
+        <v>359163.7892373877</v>
       </c>
       <c r="AE2" t="n">
-        <v>387266.4571522124</v>
+        <v>491423.7416226786</v>
       </c>
       <c r="AF2" t="n">
         <v>1.170650459711042e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.06380208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>350306.2900134908</v>
+        <v>444522.9494397627</v>
       </c>
     </row>
     <row r="3">
@@ -8365,28 +8365,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.7249876762111</v>
+        <v>266.2616963741707</v>
       </c>
       <c r="AB3" t="n">
-        <v>273.272539383056</v>
+        <v>364.3109996161494</v>
       </c>
       <c r="AC3" t="n">
-        <v>247.1917917648351</v>
+        <v>329.5416691264827</v>
       </c>
       <c r="AD3" t="n">
-        <v>199724.9876762111</v>
+        <v>266261.6963741707</v>
       </c>
       <c r="AE3" t="n">
-        <v>273272.539383056</v>
+        <v>364310.9996161495</v>
       </c>
       <c r="AF3" t="n">
         <v>1.495207270604353e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>247191.7917648351</v>
+        <v>329541.6691264827</v>
       </c>
     </row>
     <row r="4">
@@ -8471,28 +8471,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>197.0013947302112</v>
+        <v>254.0866922765233</v>
       </c>
       <c r="AB4" t="n">
-        <v>269.5459993579004</v>
+        <v>347.6526218863114</v>
       </c>
       <c r="AC4" t="n">
-        <v>243.8209074894473</v>
+        <v>314.4731435871049</v>
       </c>
       <c r="AD4" t="n">
-        <v>197001.3947302112</v>
+        <v>254086.6922765232</v>
       </c>
       <c r="AE4" t="n">
-        <v>269545.9993579003</v>
+        <v>347652.6218863114</v>
       </c>
       <c r="AF4" t="n">
         <v>1.519108741174016e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.15104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>243820.9074894473</v>
+        <v>314473.1435871049</v>
       </c>
     </row>
   </sheetData>
@@ -8768,28 +8768,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.8205248147207</v>
+        <v>292.5939040063276</v>
       </c>
       <c r="AB2" t="n">
-        <v>310.3458486666798</v>
+        <v>400.3398877934789</v>
       </c>
       <c r="AC2" t="n">
-        <v>280.726876443158</v>
+        <v>362.13201078303</v>
       </c>
       <c r="AD2" t="n">
-        <v>226820.5248147207</v>
+        <v>292593.9040063276</v>
       </c>
       <c r="AE2" t="n">
-        <v>310345.8486666798</v>
+        <v>400339.8877934789</v>
       </c>
       <c r="AF2" t="n">
         <v>1.503491350232594e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>280726.876443158</v>
+        <v>362132.01078303</v>
       </c>
     </row>
     <row r="3">
@@ -8874,28 +8874,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.7434251658754</v>
+        <v>256.5499587464022</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.983569317848</v>
+        <v>351.0229717420451</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.0756637549688</v>
+        <v>317.5218319829241</v>
       </c>
       <c r="AD3" t="n">
-        <v>190743.4251658754</v>
+        <v>256549.9587464022</v>
       </c>
       <c r="AE3" t="n">
-        <v>260983.569317848</v>
+        <v>351022.9717420451</v>
       </c>
       <c r="AF3" t="n">
         <v>1.679395826108513e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.52213541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>236075.6637549688</v>
+        <v>317521.8319829241</v>
       </c>
     </row>
   </sheetData>
@@ -15352,28 +15352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>196.1162217442882</v>
+        <v>261.1906738601522</v>
       </c>
       <c r="AB2" t="n">
-        <v>268.3348666274849</v>
+        <v>357.3726028947452</v>
       </c>
       <c r="AC2" t="n">
-        <v>242.7253635669869</v>
+        <v>323.2654632500684</v>
       </c>
       <c r="AD2" t="n">
-        <v>196116.2217442882</v>
+        <v>261190.6738601523</v>
       </c>
       <c r="AE2" t="n">
-        <v>268334.8666274849</v>
+        <v>357372.6028947452</v>
       </c>
       <c r="AF2" t="n">
         <v>1.817467379078383e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.03645833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>242725.3635669869</v>
+        <v>323265.4632500684</v>
       </c>
     </row>
     <row r="3">
@@ -15458,28 +15458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.695142021691</v>
+        <v>261.07455052535</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.4445297223301</v>
+        <v>357.2137178250688</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.0652623243545</v>
+        <v>323.1217419484453</v>
       </c>
       <c r="AD3" t="n">
-        <v>186695.142021691</v>
+        <v>261074.5505253501</v>
       </c>
       <c r="AE3" t="n">
-        <v>255444.5297223301</v>
+        <v>357213.7178250689</v>
       </c>
       <c r="AF3" t="n">
         <v>1.822991834215599e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.99088541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>231065.2623243545</v>
+        <v>323121.7419484453</v>
       </c>
     </row>
   </sheetData>
@@ -15755,28 +15755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.2722200225195</v>
+        <v>282.1466238323292</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.3354838734333</v>
+        <v>386.0454581579418</v>
       </c>
       <c r="AC2" t="n">
-        <v>259.0080271670128</v>
+        <v>349.2018214495506</v>
       </c>
       <c r="AD2" t="n">
-        <v>209272.2200225195</v>
+        <v>282146.6238323292</v>
       </c>
       <c r="AE2" t="n">
-        <v>286335.4838734333</v>
+        <v>386045.4581579418</v>
       </c>
       <c r="AF2" t="n">
         <v>2.0887547898456e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.15234375</v>
       </c>
       <c r="AH2" t="n">
-        <v>259008.0271670127</v>
+        <v>349201.8214495506</v>
       </c>
     </row>
   </sheetData>
@@ -16052,28 +16052,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>346.2252793175622</v>
+        <v>442.328146013249</v>
       </c>
       <c r="AB2" t="n">
-        <v>473.7207015436015</v>
+        <v>605.2128835158913</v>
       </c>
       <c r="AC2" t="n">
-        <v>428.5094626594598</v>
+        <v>547.4522153347508</v>
       </c>
       <c r="AD2" t="n">
-        <v>346225.2793175622</v>
+        <v>442328.1460132489</v>
       </c>
       <c r="AE2" t="n">
-        <v>473720.7015436015</v>
+        <v>605212.8835158914</v>
       </c>
       <c r="AF2" t="n">
         <v>9.41708730169192e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.24479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>428509.4626594597</v>
+        <v>547452.2153347508</v>
       </c>
     </row>
     <row r="3">
@@ -16158,28 +16158,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.4258418227086</v>
+        <v>297.7015683605274</v>
       </c>
       <c r="AB3" t="n">
-        <v>315.2788024523672</v>
+        <v>407.328419497143</v>
       </c>
       <c r="AC3" t="n">
-        <v>285.1890360429851</v>
+        <v>368.4535668293623</v>
       </c>
       <c r="AD3" t="n">
-        <v>230425.8418227086</v>
+        <v>297701.5683605274</v>
       </c>
       <c r="AE3" t="n">
-        <v>315278.8024523673</v>
+        <v>407328.419497143</v>
       </c>
       <c r="AF3" t="n">
         <v>1.27468076876307e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.21875</v>
       </c>
       <c r="AH3" t="n">
-        <v>285189.0360429851</v>
+        <v>368453.5668293623</v>
       </c>
     </row>
     <row r="4">
@@ -16264,28 +16264,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>192.0869776221639</v>
+        <v>259.3958585489057</v>
       </c>
       <c r="AB4" t="n">
-        <v>262.821877061892</v>
+        <v>354.9168574042346</v>
       </c>
       <c r="AC4" t="n">
-        <v>237.738525988003</v>
+        <v>321.0440906625116</v>
       </c>
       <c r="AD4" t="n">
-        <v>192086.9776221639</v>
+        <v>259395.8585489057</v>
       </c>
       <c r="AE4" t="n">
-        <v>262821.877061892</v>
+        <v>354916.8574042346</v>
       </c>
       <c r="AF4" t="n">
         <v>1.409612252005652e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.85807291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>237738.525988003</v>
+        <v>321044.0906625116</v>
       </c>
     </row>
     <row r="5">
@@ -16370,28 +16370,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>191.3685361903428</v>
+        <v>258.6774171170846</v>
       </c>
       <c r="AB5" t="n">
-        <v>261.8388737994759</v>
+        <v>353.933854141818</v>
       </c>
       <c r="AC5" t="n">
-        <v>236.8493391772978</v>
+        <v>320.1549038518063</v>
       </c>
       <c r="AD5" t="n">
-        <v>191368.5361903428</v>
+        <v>258677.4171170847</v>
       </c>
       <c r="AE5" t="n">
-        <v>261838.8737994759</v>
+        <v>353933.854141818</v>
       </c>
       <c r="AF5" t="n">
         <v>1.416293406529733e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.79947916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>236849.3391772978</v>
+        <v>320154.9038518063</v>
       </c>
     </row>
   </sheetData>
@@ -16667,28 +16667,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>451.5828798885385</v>
+        <v>568.3846599852767</v>
       </c>
       <c r="AB2" t="n">
-        <v>617.8756186941054</v>
+        <v>777.6889671533247</v>
       </c>
       <c r="AC2" t="n">
-        <v>558.9064368398164</v>
+        <v>703.4674236215313</v>
       </c>
       <c r="AD2" t="n">
-        <v>451582.8798885384</v>
+        <v>568384.6599852768</v>
       </c>
       <c r="AE2" t="n">
-        <v>617875.6186941053</v>
+        <v>777688.9671533247</v>
       </c>
       <c r="AF2" t="n">
         <v>7.214297277155546e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.70182291666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>558906.4368398164</v>
+        <v>703467.4236215313</v>
       </c>
     </row>
     <row r="3">
@@ -16773,28 +16773,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>269.4773814352016</v>
+        <v>347.2665265523956</v>
       </c>
       <c r="AB3" t="n">
-        <v>368.7108417826643</v>
+        <v>475.1453819468865</v>
       </c>
       <c r="AC3" t="n">
-        <v>333.5215965318426</v>
+        <v>429.7981735646068</v>
       </c>
       <c r="AD3" t="n">
-        <v>269477.3814352016</v>
+        <v>347266.5265523957</v>
       </c>
       <c r="AE3" t="n">
-        <v>368710.8417826643</v>
+        <v>475145.3819468865</v>
       </c>
       <c r="AF3" t="n">
         <v>1.059606201195607e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.45572916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>333521.5965318427</v>
+        <v>429798.1735646068</v>
       </c>
     </row>
     <row r="4">
@@ -16879,28 +16879,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>226.6299115770388</v>
+        <v>294.784213127761</v>
       </c>
       <c r="AB4" t="n">
-        <v>310.085043225621</v>
+        <v>403.3367653630428</v>
       </c>
       <c r="AC4" t="n">
-        <v>280.490961907351</v>
+        <v>364.8428705634988</v>
       </c>
       <c r="AD4" t="n">
-        <v>226629.9115770388</v>
+        <v>294784.213127761</v>
       </c>
       <c r="AE4" t="n">
-        <v>310085.043225621</v>
+        <v>403336.7653630428</v>
       </c>
       <c r="AF4" t="n">
         <v>1.186334338163214e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.80208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>280490.961907351</v>
+        <v>364842.8705634988</v>
       </c>
     </row>
     <row r="5">
@@ -16985,28 +16985,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>215.6936259790566</v>
+        <v>274.0784443478952</v>
       </c>
       <c r="AB5" t="n">
-        <v>295.1215347956</v>
+        <v>375.0062190443815</v>
       </c>
       <c r="AC5" t="n">
-        <v>266.9555497204706</v>
+        <v>339.216151823319</v>
       </c>
       <c r="AD5" t="n">
-        <v>215693.6259790566</v>
+        <v>274078.4443478952</v>
       </c>
       <c r="AE5" t="n">
-        <v>295121.5347956</v>
+        <v>375006.2190443815</v>
       </c>
       <c r="AF5" t="n">
         <v>1.245849775254393e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.14453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>266955.5497204706</v>
+        <v>339216.151823319</v>
       </c>
     </row>
     <row r="6">
@@ -17091,28 +17091,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>201.4180328568704</v>
+        <v>269.5381689888115</v>
       </c>
       <c r="AB6" t="n">
-        <v>275.5890384911148</v>
+        <v>368.794013995271</v>
       </c>
       <c r="AC6" t="n">
-        <v>249.2872074492483</v>
+        <v>333.596830905211</v>
       </c>
       <c r="AD6" t="n">
-        <v>201418.0328568704</v>
+        <v>269538.1689888115</v>
       </c>
       <c r="AE6" t="n">
-        <v>275589.0384911147</v>
+        <v>368794.013995271</v>
       </c>
       <c r="AF6" t="n">
         <v>1.270702375358401e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.890625</v>
       </c>
       <c r="AH6" t="n">
-        <v>249287.2074492484</v>
+        <v>333596.830905211</v>
       </c>
     </row>
   </sheetData>
@@ -17388,28 +17388,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.8546429783832</v>
+        <v>318.1171711369767</v>
       </c>
       <c r="AB2" t="n">
-        <v>311.7607747602755</v>
+        <v>435.2619478887091</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.0067639762427</v>
+        <v>393.7211584761906</v>
       </c>
       <c r="AD2" t="n">
-        <v>227854.6429783832</v>
+        <v>318117.1711369767</v>
       </c>
       <c r="AE2" t="n">
-        <v>311760.7747602755</v>
+        <v>435261.9478887091</v>
       </c>
       <c r="AF2" t="n">
         <v>2.136085589677855e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.60026041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>282006.7639762427</v>
+        <v>393721.1584761906</v>
       </c>
     </row>
   </sheetData>
@@ -17685,28 +17685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.8037111187851</v>
+        <v>314.3485740029042</v>
       </c>
       <c r="AB2" t="n">
-        <v>326.7417728287612</v>
+        <v>430.1055870310997</v>
       </c>
       <c r="AC2" t="n">
-        <v>295.5579966150397</v>
+        <v>389.0569134618335</v>
       </c>
       <c r="AD2" t="n">
-        <v>238803.7111187851</v>
+        <v>314348.5740029042</v>
       </c>
       <c r="AE2" t="n">
-        <v>326741.7728287611</v>
+        <v>430105.5870310997</v>
       </c>
       <c r="AF2" t="n">
         <v>1.374911162402753e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.75520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>295557.9966150397</v>
+        <v>389056.9134618334</v>
       </c>
     </row>
     <row r="3">
@@ -17791,28 +17791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>192.4481674945046</v>
+        <v>258.4484372916235</v>
       </c>
       <c r="AB3" t="n">
-        <v>263.316072979801</v>
+        <v>353.6205538427451</v>
       </c>
       <c r="AC3" t="n">
-        <v>238.1855565411152</v>
+        <v>319.8715044935572</v>
       </c>
       <c r="AD3" t="n">
-        <v>192448.1674945047</v>
+        <v>258448.4372916234</v>
       </c>
       <c r="AE3" t="n">
-        <v>263316.072979801</v>
+        <v>353620.5538427451</v>
       </c>
       <c r="AF3" t="n">
         <v>1.623763861480175e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.33984375</v>
       </c>
       <c r="AH3" t="n">
-        <v>238185.5565411152</v>
+        <v>319871.5044935571</v>
       </c>
     </row>
   </sheetData>
@@ -18088,28 +18088,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>296.8736722174425</v>
+        <v>382.8682037595422</v>
       </c>
       <c r="AB2" t="n">
-        <v>406.1956554699742</v>
+        <v>523.8571673368529</v>
       </c>
       <c r="AC2" t="n">
-        <v>367.4289122111021</v>
+        <v>473.8609745243749</v>
       </c>
       <c r="AD2" t="n">
-        <v>296873.6722174425</v>
+        <v>382868.2037595422</v>
       </c>
       <c r="AE2" t="n">
-        <v>406195.6554699742</v>
+        <v>523857.1673368528</v>
       </c>
       <c r="AF2" t="n">
         <v>1.085129041359107e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.7734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>367428.9122111021</v>
+        <v>473860.9745243749</v>
       </c>
     </row>
     <row r="3">
@@ -18194,28 +18194,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>206.6854560725967</v>
+        <v>273.5700917164545</v>
       </c>
       <c r="AB3" t="n">
-        <v>282.7961593171794</v>
+        <v>374.3106685471091</v>
       </c>
       <c r="AC3" t="n">
-        <v>255.8064907789333</v>
+        <v>338.5869836892951</v>
       </c>
       <c r="AD3" t="n">
-        <v>206685.4560725967</v>
+        <v>273570.0917164545</v>
       </c>
       <c r="AE3" t="n">
-        <v>282796.1593171795</v>
+        <v>374310.6685471091</v>
       </c>
       <c r="AF3" t="n">
         <v>1.413896775484234e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.63932291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>255806.4907789333</v>
+        <v>338586.9836892951</v>
       </c>
     </row>
     <row r="4">
@@ -18300,28 +18300,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>198.5818759069072</v>
+        <v>255.8784092127159</v>
       </c>
       <c r="AB4" t="n">
-        <v>271.7084834297631</v>
+        <v>350.1041280433815</v>
       </c>
       <c r="AC4" t="n">
-        <v>245.7770071165577</v>
+        <v>316.6906814372556</v>
       </c>
       <c r="AD4" t="n">
-        <v>198581.8759069072</v>
+        <v>255878.4092127159</v>
       </c>
       <c r="AE4" t="n">
-        <v>271708.4834297631</v>
+        <v>350104.1280433815</v>
       </c>
       <c r="AF4" t="n">
         <v>1.47918818709099e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.04036458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>245777.0071165577</v>
+        <v>316690.6814372556</v>
       </c>
     </row>
   </sheetData>
